--- a/template/attendance_report_template.xlsx
+++ b/template/attendance_report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\llamasys\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbernaldo.js\Downloads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,27 +32,142 @@
     <author>bcollachagua.js</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">bcollachagua.js:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>CASOS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">a) </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Si es 8:00 hasta 13:00 hrs laboradas, con el horario de 8:00 a 18:00 serian 4:30 hrs laboraldas.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>b)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> Mismo horario de 8:00 a 12:00, entonces laboro 4 horas.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>c)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> Mismo horario de 7:00 hasta las 19:00, considerar las hrs laboradas entre 8:00 y 18:00 menos el refrigerio.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t>bcollachagua.js:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">
 Tolerancia 4 min.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>bcollachagua.js:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Dias trabajados, son los dias con marcaciones, comisiones y home office</t>
         </r>
       </text>
     </comment>
@@ -61,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PR</t>
   </si>
@@ -105,17 +220,24 @@
     <t>ABSETISM DETAIL</t>
   </si>
   <si>
-    <t>Dias trabajados</t>
-  </si>
-  <si>
-    <t>Salida antes de hora</t>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>WORKED HOURS</t>
+  </si>
+  <si>
+    <t>WORKING DAYS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,28 +248,19 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,8 +272,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFDFEBF7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,16 +287,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,21 +304,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,11 +603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -500,70 +615,74 @@
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1"/>
+  <autoFilter ref="A1:Q1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/template/attendance_report_template.xlsx
+++ b/template/attendance_report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbernaldo.js\Downloads\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\llamasys\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -605,7 +605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
